--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Documents\Actual Documents\School\HBO Windesheim ICT\Klas 1\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A2235B-8881-47BA-BBDA-32A6151167FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E2A31F-56EE-4F5C-B8F9-05BE66A37182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="29">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Thuis werken tijdens en na les</t>
+  </si>
+  <si>
+    <t>Functionaliteit afrekenpagina</t>
+  </si>
+  <si>
+    <t>Fixes voor demo</t>
   </si>
 </sst>
 </file>
@@ -576,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +638,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -644,7 +650,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -720,6 +726,34 @@
         <v>120</v>
       </c>
       <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -746,10 +780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +836,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -814,7 +848,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -890,6 +924,20 @@
         <v>120</v>
       </c>
       <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -916,10 +964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +1020,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -984,7 +1032,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1061,6 +1109,34 @@
       </c>
       <c r="D13" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1086,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1218,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>10.666666666666666</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1154,7 +1230,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>157.33333333333334</v>
+        <v>155.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1232,6 +1308,23 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1256,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1405,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>17</v>
+        <v>21.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1324,7 +1417,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>151</v>
+        <v>146.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1416,7 +1509,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>45245</v>
@@ -1426,6 +1519,42 @@
       </c>
       <c r="D15" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1451,15 +1580,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1685,6 +1805,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -1696,14 +1825,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1723,6 +1844,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>

--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Documents\Actual Documents\School\HBO Windesheim ICT\Klas 1\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E2A31F-56EE-4F5C-B8F9-05BE66A37182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEA7DDE-E69C-4133-96A9-7DDA6339D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Fixes voor demo</t>
+  </si>
+  <si>
+    <t>Demo voorbereiden</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,10 +967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1023,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1032,7 +1035,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1137,6 +1140,20 @@
       </c>
       <c r="D15" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1164,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1235,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>12.666666666666666</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1230,7 +1247,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>155.33333333333334</v>
+        <v>151.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1324,7 +1341,18 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C15">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1351,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,6 +1608,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1805,26 +1852,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1842,30 +1896,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEA7DDE-E69C-4133-96A9-7DDA6339D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB39B9E-0137-4A36-B2E5-B097EF59E1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -653,7 +653,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -757,6 +757,20 @@
         <v>120</v>
       </c>
       <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45250</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1179,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1249,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>16.666666666666668</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1247,7 +1261,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>151.33333333333334</v>
+        <v>149.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1352,6 +1366,20 @@
       </c>
       <c r="D15" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45250</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1377,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1461,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1445,7 +1473,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>146.5</v>
+        <v>144.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1583,6 +1611,20 @@
       </c>
       <c r="C18">
         <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45250</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1608,25 +1650,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1852,33 +1875,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1896,4 +1912,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB39B9E-0137-4A36-B2E5-B097EF59E1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B0EA00-CD76-4792-B1F7-4FEAD8FA0AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="30">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D18" sqref="A17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -653,7 +653,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -771,6 +771,34 @@
         <v>120</v>
       </c>
       <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45252</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45253</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -797,10 +825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A15" sqref="A15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +881,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -865,7 +893,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -955,6 +983,34 @@
         <v>120</v>
       </c>
       <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45252</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45253</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -981,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A17" sqref="A17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1093,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1049,7 +1105,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1168,6 +1224,34 @@
       </c>
       <c r="D16" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45252</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45253</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1193,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1333,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>18.666666666666668</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1261,7 +1345,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>149.33333333333334</v>
+        <v>147.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1379,6 +1463,20 @@
         <v>120</v>
       </c>
       <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45253</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1407,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
@@ -1650,6 +1748,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1875,26 +1992,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1912,30 +2036,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B0EA00-CD76-4792-B1F7-4FEAD8FA0AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D9F6D0-10C5-423E-A3B1-D0B923EEFB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="32">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Demo voorbereiden</t>
+  </si>
+  <si>
+    <t>KBS evaluatie + achtergaand gesprek</t>
+  </si>
+  <si>
+    <t>Evaluatie + nabespreken met groep</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D18" sqref="A17:D18"/>
+      <selection activeCell="D19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +647,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -653,7 +659,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -800,6 +806,20 @@
       </c>
       <c r="D18" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45254</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -825,10 +845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D16"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +901,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -893,7 +913,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1012,6 +1032,20 @@
       </c>
       <c r="D16" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45254</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1037,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D18"/>
+      <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1127,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1105,7 +1139,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1252,6 +1286,20 @@
       </c>
       <c r="D18" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45254</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1277,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1381,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>20.666666666666668</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1345,7 +1393,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>147.33333333333334</v>
+        <v>145.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1478,6 +1526,20 @@
       </c>
       <c r="D17" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1505,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D19"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,25 +1810,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1992,33 +2035,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2036,4 +2072,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D9F6D0-10C5-423E-A3B1-D0B923EEFB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FB9C8D-95B1-4F76-9D4F-D7178047799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="34">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Evaluatie + nabespreken met groep</t>
+  </si>
+  <si>
+    <t>Buitenles groepsmeeting</t>
+  </si>
+  <si>
+    <t>Aan de slag met eigen taken</t>
   </si>
 </sst>
 </file>
@@ -845,10 +851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +907,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -913,7 +919,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1046,6 +1052,20 @@
       </c>
       <c r="D17" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45258</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1325,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1401,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>22.666666666666668</v>
+        <v>24.666666666666668</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1393,7 +1413,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>145.33333333333334</v>
+        <v>143.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1540,6 +1560,20 @@
       </c>
       <c r="D18" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45258</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1810,6 +1844,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2035,26 +2088,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2072,30 +2132,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FB9C8D-95B1-4F76-9D4F-D7178047799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E10F8-E498-46C3-B7AC-4E3E7A70FB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Aan de slag met eigen taken</t>
+  </si>
+  <si>
+    <t>Thuis werken</t>
+  </si>
+  <si>
+    <t>28/111/2023</t>
   </si>
 </sst>
 </file>
@@ -597,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D19" sqref="A19:D19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +659,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -665,7 +671,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -826,6 +832,20 @@
       </c>
       <c r="D19" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45258</v>
+      </c>
+      <c r="C20">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -853,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +927,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -919,7 +939,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1062,7 +1082,7 @@
         <v>45258</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -1345,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D19" sqref="A19:D19"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1421,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>24.666666666666668</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1413,7 +1433,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>143.33333333333334</v>
+        <v>142.66666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1574,6 +1594,17 @@
       </c>
       <c r="D19" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1844,25 +1875,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2088,33 +2100,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2132,4 +2137,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E10F8-E498-46C3-B7AC-4E3E7A70FB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839048F0-6144-420D-B903-DD9237367500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="36">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -152,7 +152,7 @@
     <t>Thuis werken</t>
   </si>
   <si>
-    <t>28/111/2023</t>
+    <t>KBSb</t>
   </si>
 </sst>
 </file>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A21" sqref="A21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -671,7 +671,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -846,6 +846,17 @@
       </c>
       <c r="D20" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45259</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -871,10 +882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +938,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -939,7 +950,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1086,6 +1097,17 @@
       </c>
       <c r="D18" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45259</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1111,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D19"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1189,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1179,7 +1201,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1340,6 +1362,17 @@
       </c>
       <c r="D19" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45259</v>
+      </c>
+      <c r="C20">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1365,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1454,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>25.333333333333332</v>
+        <v>27.833333333333332</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1433,7 +1466,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>142.66666666666666</v>
+        <v>140.16666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1600,11 +1633,33 @@
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
+      <c r="B20" s="2">
+        <v>45258</v>
       </c>
       <c r="C20">
         <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45259</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45259</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1630,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,7 +1741,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1698,7 +1753,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>144.5</v>
+        <v>142.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1850,6 +1905,17 @@
       </c>
       <c r="D19" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45259</v>
+      </c>
+      <c r="C20">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1875,6 +1941,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2100,26 +2185,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2137,30 +2229,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839048F0-6144-420D-B903-DD9237367500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D759B617-248B-47BF-90A8-E5C46771ADEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="14790" windowHeight="13950" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="40">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>KBSb</t>
+  </si>
+  <si>
+    <t>KBS lessen en na de les tot 5uur door</t>
+  </si>
+  <si>
+    <t>KBS en werk</t>
+  </si>
+  <si>
+    <t>kbs lessen</t>
+  </si>
+  <si>
+    <t>KBS lessen en groeps moment</t>
   </si>
 </sst>
 </file>
@@ -603,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +671,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -671,7 +683,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -857,6 +869,20 @@
       </c>
       <c r="C21">
         <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45260</v>
+      </c>
+      <c r="C22">
+        <v>360</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -882,10 +908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D19"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +964,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -950,7 +976,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1108,6 +1134,20 @@
       </c>
       <c r="C19">
         <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45260</v>
+      </c>
+      <c r="C20">
+        <v>360</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1133,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+      <selection activeCell="D21" sqref="A21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1229,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1201,7 +1241,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1373,6 +1413,20 @@
       </c>
       <c r="C20">
         <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45260</v>
+      </c>
+      <c r="C21">
+        <v>360</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1398,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D21"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1508,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>27.833333333333332</v>
+        <v>34.333333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1466,7 +1520,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>140.16666666666666</v>
+        <v>133.66666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1660,6 +1714,20 @@
       </c>
       <c r="C22">
         <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45260</v>
+      </c>
+      <c r="C23">
+        <v>390</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1687,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,15 +2019,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2185,6 +2244,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
@@ -2204,14 +2272,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2229,4 +2289,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D759B617-248B-47BF-90A8-E5C46771ADEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29630703-A642-42C2-AA44-782DD10B146A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="42">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>KBS lessen en groeps moment</t>
+  </si>
+  <si>
+    <t>Op school werken tussenuur</t>
+  </si>
+  <si>
+    <t>Lekker gewerrkt:3</t>
   </si>
 </sst>
 </file>
@@ -615,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +677,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -683,7 +689,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>138</v>
+        <v>135.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -883,6 +889,17 @@
       </c>
       <c r="D22" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45264</v>
+      </c>
+      <c r="C23">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1452,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="C24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1525,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>34.333333333333336</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1520,7 +1537,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>133.66666666666666</v>
+        <v>131.16666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1728,6 +1745,20 @@
       </c>
       <c r="D23" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45264</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2009,13 +2040,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2245,28 +2275,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2292,9 +2313,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chmen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29630703-A642-42C2-AA44-782DD10B146A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEBDB7B-CA90-4995-92AF-EB08FC0D79A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -28,15 +28,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -45,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="44">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -171,6 +162,12 @@
   </si>
   <si>
     <t>Lekker gewerrkt:3</t>
+  </si>
+  <si>
+    <t>Thuis alleen gewerkt</t>
+  </si>
+  <si>
+    <t>27/11/20203</t>
   </si>
 </sst>
 </file>
@@ -252,9 +249,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -623,20 +620,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -644,7 +641,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -652,7 +649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -660,7 +657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -668,10 +665,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -683,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -695,10 +692,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -712,7 +709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -726,7 +723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -740,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -754,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -768,7 +765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -782,7 +779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -796,7 +793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -810,7 +807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -824,7 +821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -838,7 +835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -852,7 +849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -866,7 +863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -877,7 +874,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -891,7 +888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -925,22 +922,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -948,7 +945,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,7 +953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,7 +961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,37 +969,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1030,7 +1027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1044,7 +1041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1072,7 +1069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1086,7 +1083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1100,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1114,7 +1111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1128,43 +1125,65 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2">
-        <v>45258</v>
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
       </c>
       <c r="C18">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45258</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>45259</v>
       </c>
-      <c r="C19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>45260</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>360</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45261</v>
+      </c>
+      <c r="C22">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1196,16 +1215,16 @@
       <selection activeCell="D21" sqref="A21:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1232,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1229,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1237,10 +1256,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1252,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,10 +1283,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1281,7 +1300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1295,7 +1314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1323,7 +1342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1337,7 +1356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1351,7 +1370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1365,7 +1384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1379,7 +1398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1393,7 +1412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1407,7 +1426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1432,7 +1451,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1475,16 +1494,16 @@
       <selection activeCell="C24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1511,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1500,7 +1519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1516,10 +1535,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1543,10 +1562,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1560,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1574,7 +1593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1602,7 +1621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1616,7 +1635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1630,7 +1649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1644,7 +1663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1658,7 +1677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1672,7 +1691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1686,7 +1705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1700,7 +1719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1711,7 +1730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1722,7 +1741,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1733,7 +1752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1747,7 +1766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1786,20 +1805,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1826,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1815,7 +1834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1823,7 +1842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1831,10 +1850,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1846,7 +1865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1858,10 +1877,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1889,7 +1908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1903,7 +1922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1917,7 +1936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1931,7 +1950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1942,7 +1961,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +1975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1967,7 +1986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1981,7 +2000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1992,7 +2011,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2006,7 +2025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2040,12 +2059,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2275,19 +2295,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2313,19 +2342,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chmen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEBDB7B-CA90-4995-92AF-EB08FC0D79A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAC7F2F-1D6C-41BF-964B-7FA933D2644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -28,6 +28,17 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="47">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -167,7 +178,16 @@
     <t>Thuis alleen gewerkt</t>
   </si>
   <si>
-    <t>27/11/20203</t>
+    <t>Datum word verkeerd geprint. Staat wel correct in edit balk boven in excel</t>
+  </si>
+  <si>
+    <t>zoinks scoob</t>
+  </si>
+  <si>
+    <t>KBS momentje geplanned</t>
+  </si>
+  <si>
+    <t>Lonely aanwezig in teams D:</t>
   </si>
 </sst>
 </file>
@@ -249,9 +269,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,22 +638,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A24" sqref="A24:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -641,7 +661,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -649,7 +669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -657,7 +677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -665,37 +685,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>135.5</v>
+        <v>131.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -709,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -723,7 +743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -737,7 +757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -751,7 +771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -765,7 +785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -779,7 +799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -793,7 +813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -807,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -821,7 +841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -835,7 +855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -849,7 +869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -863,7 +883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -874,7 +894,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -888,7 +908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -897,6 +917,37 @@
       </c>
       <c r="C23">
         <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C25">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -922,22 +973,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView view="pageLayout" zoomScale="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -945,7 +996,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -953,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,7 +1012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -969,37 +1020,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1041,7 +1095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1069,7 +1123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1083,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1111,7 +1165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1125,18 +1179,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
+      <c r="B18" s="2">
+        <v>45257</v>
       </c>
       <c r="C18">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1150,7 +1204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1161,7 +1215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1175,7 +1229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1184,6 +1238,34 @@
       </c>
       <c r="C22">
         <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1209,22 +1291,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D21" sqref="A21:D21"/>
+      <selection activeCell="A22" sqref="A22:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1314,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1256,37 +1338,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1314,7 +1396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1328,7 +1410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1342,7 +1424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1356,7 +1438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1370,7 +1452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1384,7 +1466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1398,7 +1480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1412,7 +1494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +1508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1451,7 +1533,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1463,6 +1545,34 @@
       </c>
       <c r="D21" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C22">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1488,22 +1598,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C24" sqref="A24:C24"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1621,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1519,7 +1629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1535,37 +1645,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>36.833333333333336</v>
+        <v>42.833333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>131.16666666666666</v>
+        <v>125.16666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1593,7 +1703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1607,7 +1717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1635,7 +1745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1649,7 +1759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1663,7 +1773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1677,7 +1787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1691,7 +1801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1705,7 +1815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1719,7 +1829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1730,7 +1840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1741,7 +1851,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1752,7 +1862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1766,7 +1876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1778,6 +1888,48 @@
       </c>
       <c r="D24" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C25">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45266</v>
+      </c>
+      <c r="C27">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1803,22 +1955,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A21" sqref="A21:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1978,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1834,7 +1986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1842,7 +1994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1850,37 +2002,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>25.5</v>
+        <v>29.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>142.5</v>
+        <v>138.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1894,7 +2046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1908,7 +2060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1936,7 +2088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1950,7 +2102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1961,7 +2113,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1975,7 +2127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1986,7 +2138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2000,7 +2152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2011,7 +2163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2034,6 +2186,34 @@
       </c>
       <c r="C20">
         <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C22">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2059,13 +2239,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2295,28 +2474,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2342,9 +2512,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Documents\Actual Documents\School\HBO Windesheim ICT\Klas 1\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAC7F2F-1D6C-41BF-964B-7FA933D2644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2226531-A4B7-4B5D-8062-2A8A1368F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -35,8 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="50">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -188,6 +186,15 @@
   </si>
   <si>
     <t>Lonely aanwezig in teams D:</t>
+  </si>
+  <si>
+    <t>Groeps moment</t>
+  </si>
+  <si>
+    <t>Orderlines errors fixen</t>
+  </si>
+  <si>
+    <t>Thuis</t>
   </si>
 </sst>
 </file>
@@ -641,7 +648,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D25"/>
+      <selection activeCell="A19" sqref="A19:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:D24"/>
     </sheetView>
   </sheetViews>
@@ -1294,7 +1301,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D22"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2018,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>29.5</v>
+        <v>34.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2023,7 +2030,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>138.5</v>
+        <v>133.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2190,21 +2197,18 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
-        <v>45265</v>
+        <v>45260</v>
       </c>
       <c r="C21">
-        <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2">
         <v>45265</v>
@@ -2215,6 +2219,37 @@
       <c r="D22" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45266</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2239,12 +2274,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2474,19 +2510,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2512,19 +2557,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Documents\Actual Documents\School\HBO Windesheim ICT\Klas 1\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2226531-A4B7-4B5D-8062-2A8A1368F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202CA6AC-0EA0-473A-8AE7-2AF6C8AAB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="51">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -191,10 +191,13 @@
     <t>Groeps moment</t>
   </si>
   <si>
-    <t>Orderlines errors fixen</t>
-  </si>
-  <si>
     <t>Thuis</t>
+  </si>
+  <si>
+    <t>Orderlines</t>
+  </si>
+  <si>
+    <t>OrderID's fixen</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1968,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,7 +2021,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2030,7 +2033,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>133.5</v>
+        <v>130.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2236,7 +2239,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2">
         <v>45266</v>
@@ -2245,11 +2248,19 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45267</v>
+      </c>
+      <c r="C25">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2274,13 +2285,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2510,28 +2520,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2557,9 +2558,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Documents\Actual Documents\School\HBO Windesheim ICT\Klas 1\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/nerdy_gadgets/docs/oplevering/08Projectdocumentatie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2226531-A4B7-4B5D-8062-2A8A1368F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B68AA4-76A3-934B-BD5C-D9CA2DF09B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="51">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Thuis</t>
+  </si>
+  <si>
+    <t>Teams meeting</t>
   </si>
 </sst>
 </file>
@@ -276,9 +279,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -645,22 +648,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A26"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -668,7 +671,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -676,7 +679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -684,7 +687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -692,37 +695,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>131.5</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -736,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -750,7 +753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -764,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -778,7 +781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -792,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -806,7 +809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -820,7 +823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -834,7 +837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -848,7 +851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -862,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -876,7 +879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -890,7 +893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -901,7 +904,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -915,7 +918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -929,7 +932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -943,7 +946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -955,6 +958,20 @@
       </c>
       <c r="D25" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45267</v>
+      </c>
+      <c r="C26">
+        <v>210</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -983,19 +1000,19 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A4" zoomScale="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D24"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1020,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,10 +1044,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1042,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,13 +1071,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1074,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1088,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1116,7 +1133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1130,7 +1147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1144,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1158,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1172,7 +1189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1186,7 +1203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1197,7 +1214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1211,7 +1228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1222,7 +1239,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1236,7 +1253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1247,7 +1264,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1261,7 +1278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1304,16 +1321,16 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1338,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1345,10 +1362,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1360,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1372,10 +1389,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1389,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1417,7 +1434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1445,7 +1462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1459,7 +1476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1473,7 +1490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1487,7 +1504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1501,7 +1518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1515,7 +1532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1540,7 +1557,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1554,7 +1571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1568,7 +1585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1611,16 +1628,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1645,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1636,7 +1653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1644,7 +1661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1652,10 +1669,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1667,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1679,10 +1696,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1696,7 +1713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1710,7 +1727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1724,7 +1741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1738,7 +1755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1752,7 +1769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1766,7 +1783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1780,7 +1797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1794,7 +1811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1808,7 +1825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1822,7 +1839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1836,7 +1853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1847,7 +1864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1858,7 +1875,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1869,7 +1886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1883,7 +1900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1897,7 +1914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1911,7 +1928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1925,7 +1942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1964,20 +1981,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +2002,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2001,7 +2018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2009,10 +2026,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2024,7 +2041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2036,10 +2053,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2067,7 +2084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2081,7 +2098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2095,7 +2112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2109,7 +2126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2120,7 +2137,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2134,7 +2151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2145,7 +2162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2159,7 +2176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2170,7 +2187,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2184,7 +2201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2195,7 +2212,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2206,7 +2223,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2220,7 +2237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2234,7 +2251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2248,7 +2265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
     </row>
   </sheetData>
@@ -2274,16 +2291,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2509,6 +2516,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2519,24 +2536,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2556,6 +2555,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>

--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Documents\Actual Documents\School\HBO Windesheim ICT\Klas 1\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/nerdy_gadgets/docs/oplevering/08Projectdocumentatie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202CA6AC-0EA0-473A-8AE7-2AF6C8AAB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A7CEEB-B20B-704D-BBAA-8EE0B6DB92DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="51">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -191,13 +191,13 @@
     <t>Groeps moment</t>
   </si>
   <si>
+    <t>Orderlines errors fixen</t>
+  </si>
+  <si>
     <t>Thuis</t>
   </si>
   <si>
-    <t>Orderlines</t>
-  </si>
-  <si>
-    <t>OrderID's fixen</t>
+    <t>Teams meeting</t>
   </si>
 </sst>
 </file>
@@ -279,9 +279,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,22 +648,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -679,7 +679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -687,7 +687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -695,37 +695,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>131.5</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -739,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -753,7 +753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -767,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -781,7 +781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -795,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -809,7 +809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -823,7 +823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -851,7 +851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -865,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -879,7 +879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -893,7 +893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -904,7 +904,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -932,7 +932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -946,7 +946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -958,6 +958,20 @@
       </c>
       <c r="D25" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45267</v>
+      </c>
+      <c r="C26">
+        <v>210</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -986,19 +1000,19 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A4" zoomScale="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D24"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1020,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,7 +1036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,10 +1044,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,13 +1071,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1119,7 +1133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1133,7 +1147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1147,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1161,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1175,7 +1189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1189,7 +1203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1200,7 +1214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1214,7 +1228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1225,7 +1239,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1239,7 +1253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1250,7 +1264,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +1278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1307,16 +1321,16 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1338,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +1354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1348,10 +1362,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1375,10 +1389,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1392,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1406,7 +1420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1420,7 +1434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1434,7 +1448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1448,7 +1462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1462,7 +1476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1476,7 +1490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1490,7 +1504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1518,7 +1532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1532,7 +1546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1543,7 +1557,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1557,7 +1571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1571,7 +1585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1614,16 +1628,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1645,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1639,7 +1653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1655,10 +1669,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1670,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1682,10 +1696,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1699,7 +1713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1713,7 +1727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +1741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1741,7 +1755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1755,7 +1769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1769,7 +1783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1783,7 +1797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1797,7 +1811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +1825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1825,7 +1839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1839,7 +1853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1850,7 +1864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1861,7 +1875,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1872,7 +1886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1886,7 +1900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1900,7 +1914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1914,7 +1928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1928,7 +1942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1967,20 +1981,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView view="pageLayout" zoomScale="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +2002,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1996,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2012,37 +2026,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>37.5</v>
+        <v>34.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>130.5</v>
+        <v>133.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2056,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2070,7 +2084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2084,7 +2098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2098,7 +2112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2112,7 +2126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2123,7 +2137,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2137,7 +2151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2148,7 +2162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2162,7 +2176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2173,7 +2187,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2187,7 +2201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2198,7 +2212,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2209,7 +2223,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2223,7 +2237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2237,9 +2251,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2">
         <v>45266</v>
@@ -2248,19 +2262,11 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="2">
-        <v>45267</v>
-      </c>
-      <c r="C25">
-        <v>180</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2285,15 +2291,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2519,7 +2516,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -2529,15 +2526,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2557,7 +2555,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2573,4 +2571,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/nerdy_gadgets/docs/oplevering/08Projectdocumentatie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A7CEEB-B20B-704D-BBAA-8EE0B6DB92DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A90F5D6-5CAB-1043-BDC2-7D40C3885C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="52">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Teams meeting</t>
+  </si>
+  <si>
+    <t>inlog pagina</t>
   </si>
 </sst>
 </file>
@@ -648,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -704,7 +707,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -716,7 +719,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>128</v>
+        <v>127.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -972,6 +975,20 @@
       </c>
       <c r="D26" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45267</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2291,6 +2308,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2516,41 +2552,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2574,9 +2579,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/nerdy_gadgets/docs/oplevering/08Projectdocumentatie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A90F5D6-5CAB-1043-BDC2-7D40C3885C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00257DD-56E6-4A35-B9D9-91B4FC0320A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>inlog pagina</t>
+  </si>
+  <si>
+    <t>Yeeeet em</t>
   </si>
 </sst>
 </file>
@@ -282,9 +285,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -653,20 +656,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -674,7 +677,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -682,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -690,7 +693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -698,10 +701,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -713,7 +716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -725,10 +728,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -742,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -756,7 +759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -770,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -784,7 +787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -798,7 +801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -812,7 +815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -826,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -840,7 +843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -854,7 +857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -868,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -882,7 +885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -896,7 +899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -907,7 +910,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -921,7 +924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -935,7 +938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -949,7 +952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -963,7 +966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -977,7 +980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1020,16 +1023,16 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1040,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,10 +1064,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1088,13 +1091,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1338,16 +1341,16 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1358,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1379,10 +1382,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1406,10 +1409,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1639,22 +1642,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1665,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1686,37 +1689,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>42.833333333333336</v>
+        <v>46.833333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>125.16666666666666</v>
+        <v>121.16666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1971,6 +1974,20 @@
       </c>
       <c r="D27" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45267</v>
+      </c>
+      <c r="C28">
+        <v>240</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2002,16 +2019,16 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2036,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2027,7 +2044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2035,7 +2052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2043,10 +2060,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2058,7 +2075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2070,10 +2087,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2087,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2101,7 +2118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2115,7 +2132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2129,7 +2146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2143,7 +2160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2154,7 +2171,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2168,7 +2185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2179,7 +2196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2193,7 +2210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2204,7 +2221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2218,7 +2235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2229,7 +2246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2240,7 +2257,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2254,7 +2271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2268,7 +2285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2282,7 +2299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
   </sheetData>
@@ -2308,25 +2325,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2552,10 +2550,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2579,21 +2608,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Documents\Actual Documents\School\HBO Windesheim ICT\Klas 1\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00257DD-56E6-4A35-B9D9-91B4FC0320A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A08607-C37C-416C-BDA4-1EF33624A453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2790" windowWidth="14895" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="64">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Groeps moment</t>
   </si>
   <si>
-    <t>Orderlines errors fixen</t>
-  </si>
-  <si>
     <t>Thuis</t>
   </si>
   <si>
@@ -204,6 +201,42 @@
   </si>
   <si>
     <t>Yeeeet em</t>
+  </si>
+  <si>
+    <t>Week 1 kbs lessen</t>
+  </si>
+  <si>
+    <t>Lessen</t>
+  </si>
+  <si>
+    <t>Week 2 kbs lessen</t>
+  </si>
+  <si>
+    <t>Week 3 kbs lessen</t>
+  </si>
+  <si>
+    <t>Week 4 kbs lessen</t>
+  </si>
+  <si>
+    <t>Week 5 kbs lessen</t>
+  </si>
+  <si>
+    <t>Verder met orderlines</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>bug fixes</t>
+  </si>
+  <si>
+    <t>nog meer bug fixes</t>
+  </si>
+  <si>
+    <t>mollie api fixen</t>
+  </si>
+  <si>
+    <t>Orderlines functioneel krijgen</t>
   </si>
 </sst>
 </file>
@@ -257,12 +290,23 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -271,12 +315,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,12 +715,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -977,7 +1022,7 @@
         <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1033,12 +1078,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1351,12 +1396,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1644,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1658,12 +1703,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1987,7 +2032,7 @@
         <v>240</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2013,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,12 +2074,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2069,7 +2114,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>34.5</v>
+        <v>65.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2081,7 +2126,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>133.5</v>
+        <v>102.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2106,69 +2151,72 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2">
-        <v>45217</v>
+        <v>45187</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2">
-        <v>45231</v>
+        <v>45194</v>
       </c>
       <c r="C11">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45236</v>
+        <v>55</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45201</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2">
-        <v>45243</v>
+        <v>45208</v>
       </c>
       <c r="C13">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2">
-        <v>45244</v>
+        <v>45216</v>
       </c>
       <c r="C14">
-        <v>260</v>
+        <v>240</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2176,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>45245</v>
+        <v>45217</v>
       </c>
       <c r="C15">
         <v>120</v>
@@ -2187,13 +2235,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
-        <v>45245</v>
+        <v>45231</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,7 +2252,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>45246</v>
+        <v>45236</v>
       </c>
       <c r="C17">
         <v>120</v>
@@ -2212,57 +2263,60 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>45246</v>
+        <v>45243</v>
       </c>
       <c r="C18">
-        <v>90</v>
+        <v>280</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>45250</v>
+        <v>45244</v>
       </c>
       <c r="C19">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2">
-        <v>45259</v>
+        <v>45245</v>
       </c>
       <c r="C20">
         <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>45260</v>
+        <v>45245</v>
       </c>
       <c r="C21">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>45265</v>
+        <v>45246</v>
       </c>
       <c r="C22">
         <v>120</v>
@@ -2273,34 +2327,148 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>45265</v>
+        <v>45246</v>
       </c>
       <c r="C23">
-        <v>120</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45250</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45252</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45253</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45259</v>
+      </c>
+      <c r="C27">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45260</v>
+      </c>
+      <c r="C28">
+        <v>180</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45266</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="2">
         <v>45266</v>
       </c>
-      <c r="C24">
-        <v>120</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="C32">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45267</v>
+      </c>
+      <c r="C33">
+        <v>210</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAC7F2F-1D6C-41BF-964B-7FA933D2644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0620449-5D3F-4C79-B5DF-26510BB559BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="47">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -269,9 +269,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,20 +640,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -669,7 +669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,7 +677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -685,10 +685,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -712,10 +712,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -743,7 +743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -757,7 +757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -771,7 +771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -785,7 +785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -799,7 +799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -827,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -841,7 +841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -855,7 +855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -869,7 +869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -883,7 +883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -894,7 +894,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -908,7 +908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -922,7 +922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -936,7 +936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -975,20 +975,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="45" zoomScalePageLayoutView="45" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,10 +1020,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1047,13 +1047,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1291,22 +1291,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1338,37 +1338,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>32</v>
+        <v>34.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>136</v>
+        <v>133.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1573,6 +1573,17 @@
       </c>
       <c r="D23" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45267</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1600,20 +1611,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1632,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1629,7 +1640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +1648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1645,10 +1656,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1660,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1672,10 +1683,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1689,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1703,7 +1714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1731,7 +1742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +1756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1759,7 +1770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1773,7 +1784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1787,7 +1798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +1812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1815,7 +1826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1829,7 +1840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1840,7 +1851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1851,7 +1862,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1862,7 +1873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1876,7 +1887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1890,7 +1901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1904,7 +1915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1918,7 +1929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1961,16 +1972,16 @@
       <selection activeCell="A21" sqref="A21:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1989,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1986,7 +1997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1994,7 +2005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2002,10 +2013,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2017,7 +2028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2029,10 +2040,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2046,7 +2057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2060,7 +2071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2074,7 +2085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2088,7 +2099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2102,7 +2113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2113,7 +2124,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2127,7 +2138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2138,7 +2149,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2152,7 +2163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2163,7 +2174,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2177,7 +2188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2188,7 +2199,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2202,7 +2213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2239,12 +2250,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2474,19 +2486,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2512,19 +2533,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0620449-5D3F-4C79-B5DF-26510BB559BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE7C35E-4E4D-4A34-8D2D-E2CB94DF6E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="47">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -1291,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>34.5</v>
+        <v>38.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>133.5</v>
+        <v>129.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1584,6 +1584,28 @@
       </c>
       <c r="C24">
         <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45271</v>
+      </c>
+      <c r="C25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45273</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2250,13 +2272,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2486,28 +2507,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2533,9 +2545,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE7C35E-4E4D-4A34-8D2D-E2CB94DF6E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61E1335-6B00-4B69-80E2-90CDAE989460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="47">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -638,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D25"/>
+    <sheetView view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>36.5</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -706,7 +706,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>131.5</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -947,6 +947,48 @@
         <v>120</v>
       </c>
       <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45268</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45271</v>
+      </c>
+      <c r="C27">
+        <v>150</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45273</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -973,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="45" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D24"/>
+    <sheetView view="pageLayout" topLeftCell="A12" zoomScale="83" zoomScalePageLayoutView="83" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1029,7 +1071,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>32</v>
+        <v>38.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1041,7 +1083,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>136</v>
+        <v>129.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1265,6 +1307,48 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45268</v>
+      </c>
+      <c r="C25">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45271</v>
+      </c>
+      <c r="C26">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45273</v>
+      </c>
+      <c r="C27">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1291,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView view="pageLayout" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1347,7 +1431,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>38.5</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1359,7 +1443,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>129.5</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1591,21 +1675,41 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>45271</v>
+        <v>45268</v>
       </c>
       <c r="C25">
         <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2">
+        <v>45271</v>
+      </c>
+      <c r="C26">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2">
         <v>45273</v>
       </c>
-      <c r="C26">
-        <v>120</v>
+      <c r="C27">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1631,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1687,7 +1791,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>42.833333333333336</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1699,7 +1803,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>125.16666666666666</v>
+        <v>120.66666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1963,6 +2067,34 @@
       </c>
       <c r="D27" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45271</v>
+      </c>
+      <c r="C28">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45273</v>
+      </c>
+      <c r="C29">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1990,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2272,12 +2404,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2507,19 +2640,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2545,19 +2687,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nerdy_gadgets\docs\oplevering\08Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61E1335-6B00-4B69-80E2-90CDAE989460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD14F87-97BD-43CE-B92D-7B92E858A43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="14790" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="51">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>Lonely aanwezig in teams D:</t>
+  </si>
+  <si>
+    <t>Les + doorgewerkt</t>
+  </si>
+  <si>
+    <t>Werken in de trein brrr</t>
+  </si>
+  <si>
+    <t>Eigen conversie maatregel</t>
+  </si>
+  <si>
+    <t>Eigen conversie maatregel + voortgang rapport</t>
   </si>
 </sst>
 </file>
@@ -269,9 +281,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,22 +650,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -661,7 +673,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -669,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,7 +689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -685,37 +697,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -729,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -743,7 +755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -757,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -771,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -785,7 +797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -799,7 +811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -813,7 +825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -827,7 +839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -841,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -855,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -869,7 +881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -883,7 +895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -894,7 +906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -908,7 +920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -922,7 +934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -936,7 +948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -950,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -964,7 +976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -978,7 +990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -989,6 +1001,20 @@
         <v>120</v>
       </c>
       <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45274</v>
+      </c>
+      <c r="C29">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1015,22 +1041,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A12" zoomScale="83" zoomScalePageLayoutView="83" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1064,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,7 +1080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1062,40 +1088,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>129.5</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1109,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1123,7 +1149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1137,7 +1163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1151,7 +1177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1165,7 +1191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1207,7 +1233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1221,7 +1247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1232,7 +1258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1246,7 +1272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1257,7 +1283,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1271,7 +1297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1282,7 +1308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1296,7 +1322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1310,7 +1336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1324,7 +1350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1332,13 +1358,13 @@
         <v>45271</v>
       </c>
       <c r="C26">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1349,6 +1375,20 @@
         <v>120</v>
       </c>
       <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45274</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1375,22 +1415,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1438,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1414,7 +1454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1422,10 +1462,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1437,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1449,10 +1489,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1466,7 +1506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1494,7 +1534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1522,7 +1562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1536,7 +1576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1550,7 +1590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1564,7 +1604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1578,7 +1618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1592,7 +1632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1606,7 +1646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1617,7 +1657,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1631,7 +1671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1645,7 +1685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1670,7 +1710,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1684,7 +1724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1698,7 +1738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1711,6 +1751,9 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1735,22 +1778,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1801,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1766,7 +1809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1774,7 +1817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1782,37 +1825,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>47.333333333333336</v>
+        <v>51.583333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>120.66666666666666</v>
+        <v>116.41666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +1869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1840,7 +1883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1854,7 +1897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1868,7 +1911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1882,7 +1925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1896,7 +1939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1910,7 +1953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1924,7 +1967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1938,7 +1981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1952,7 +1995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1966,7 +2009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1977,7 +2020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1988,7 +2031,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1999,7 +2042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2013,7 +2056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2027,7 +2070,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2041,7 +2084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2055,7 +2098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2069,7 +2112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2080,10 +2123,10 @@
         <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2095,6 +2138,48 @@
       </c>
       <c r="D29" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45274</v>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45274</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45274</v>
+      </c>
+      <c r="C32">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2120,22 +2205,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +2228,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2159,7 +2244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2167,37 +2252,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>138.5</v>
+        <v>136.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2211,7 +2296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2225,7 +2310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2239,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2253,7 +2338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2267,7 +2352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2278,7 +2363,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2292,7 +2377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2303,7 +2388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2317,7 +2402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2328,7 +2413,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2342,7 +2427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2353,7 +2438,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2367,7 +2452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2378,6 +2463,20 @@
         <v>120</v>
       </c>
       <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45274</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
         <v>13</v>
       </c>
     </row>

--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jochem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chmen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00B3142-AAFA-45EB-9137-A0D17BDF8FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED870C3E-8D0A-4D10-9353-2172EBF448E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11925" yWindow="2865" windowWidth="14895" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -27,22 +27,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Marvin!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="56">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -291,9 +280,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,22 +649,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A30" sqref="A30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -683,7 +672,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -691,7 +680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -699,7 +688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -707,37 +696,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -751,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -765,7 +754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -779,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -793,7 +782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -807,7 +796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -821,7 +810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -835,7 +824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -849,7 +838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -863,7 +852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -877,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -891,7 +880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -905,7 +894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -916,7 +905,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -930,7 +919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -944,7 +933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -958,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -972,7 +961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -986,7 +975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1000,7 +989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1014,7 +1003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1026,6 +1015,20 @@
       </c>
       <c r="D29" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45279</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1046,22 +1049,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScale="83" zoomScalePageLayoutView="83" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1072,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,40 +1096,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>40.5</v>
+        <v>50.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>127.5</v>
+        <v>117.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1395,6 +1398,53 @@
       </c>
       <c r="D28" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45276</v>
+      </c>
+      <c r="C29">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45277</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45278</v>
+      </c>
+      <c r="C31">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45279</v>
+      </c>
+      <c r="C32">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1421,16 +1471,16 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1488,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1462,10 +1512,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1489,10 +1539,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1506,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1520,7 +1570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1534,7 +1584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1548,7 +1598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1562,7 +1612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1590,7 +1640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1604,7 +1654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1618,7 +1668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1632,7 +1682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1646,7 +1696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1657,7 +1707,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1671,7 +1721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1699,7 +1749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1710,7 +1760,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1724,7 +1774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1738,7 +1788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1775,22 +1825,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1848,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1814,7 +1864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1822,37 +1872,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>47.333333333333336</v>
+        <v>49.333333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>120.66666666666666</v>
+        <v>118.66666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1866,7 +1916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1880,7 +1930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +1944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1908,7 +1958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1922,7 +1972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1936,7 +1986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1950,7 +2000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1964,7 +2014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +2028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1992,7 +2042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2006,7 +2056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2017,7 +2067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2028,7 +2078,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2039,7 +2089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2053,7 +2103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2067,7 +2117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2081,7 +2131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2095,7 +2145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2109,7 +2159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2123,7 +2173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2135,6 +2185,20 @@
       </c>
       <c r="D29" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45279</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2160,22 +2224,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView view="pageLayout" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2247,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2191,7 +2255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2207,37 +2271,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>53.5</v>
+        <v>55.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>114.5</v>
+        <v>112.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2251,7 +2315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2265,7 +2329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2279,7 +2343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2293,7 +2357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2307,7 +2371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2318,7 +2382,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2332,7 +2396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2343,7 +2407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2357,7 +2421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2368,7 +2432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2382,7 +2446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2393,7 +2457,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2404,7 +2468,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2418,7 +2482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2432,7 +2496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2446,7 +2510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2460,7 +2524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2474,7 +2538,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2488,7 +2552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2502,7 +2566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2516,7 +2580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2530,7 +2594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2544,7 +2608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2558,7 +2622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -2572,7 +2636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -2583,12 +2647,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>45279</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2599,17 +2663,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>45280</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>45281</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2617,6 +2681,20 @@
         <v>45282</v>
       </c>
       <c r="D39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45279</v>
+      </c>
+      <c r="C40">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
         <v>52</v>
       </c>
     </row>

--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chmen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED870C3E-8D0A-4D10-9353-2172EBF448E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D6878-BE95-4F0E-8513-6A4443A6FBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="480" windowWidth="14790" windowHeight="13950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -27,11 +27,24 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Marvin!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="59">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -199,6 +212,15 @@
   </si>
   <si>
     <t>Conversie maatregel realiseren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KBS a les </t>
+  </si>
+  <si>
+    <t>Gewerkt in trein brr</t>
+  </si>
+  <si>
+    <t>Trein go brr</t>
   </si>
 </sst>
 </file>
@@ -280,9 +302,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,16 +677,16 @@
       <selection activeCell="A30" sqref="A30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -672,7 +694,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -680,7 +702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -688,7 +710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -696,10 +718,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -711,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -723,10 +745,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -740,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -754,7 +776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -768,7 +790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -782,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -796,7 +818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -810,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -824,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -838,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -852,7 +874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -866,7 +888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -880,7 +902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -894,7 +916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -905,7 +927,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -919,7 +941,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -933,7 +955,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -947,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -961,7 +983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -975,7 +997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -989,7 +1011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1003,7 +1025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1017,7 +1039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1055,16 +1077,16 @@
       <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1094,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +1110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1096,10 +1118,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1123,13 +1145,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1143,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1157,7 +1179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1185,7 +1207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1199,7 +1221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1213,7 +1235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1227,7 +1249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1241,7 +1263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1255,7 +1277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1266,7 +1288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1280,7 +1302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1291,7 +1313,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1305,7 +1327,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1316,7 +1338,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +1352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1344,7 +1366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1358,7 +1380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1372,7 +1394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1386,7 +1408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1411,7 +1433,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1422,7 +1444,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1433,7 +1455,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1471,16 +1493,16 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1510,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1496,7 +1518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1512,10 +1534,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +1549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1539,10 +1561,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1556,7 +1578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1570,7 +1592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +1606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1612,7 +1634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1626,7 +1648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1640,7 +1662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1668,7 +1690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1682,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1696,7 +1718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1707,7 +1729,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1721,7 +1743,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1749,7 +1771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1782,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1774,7 +1796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1788,7 +1810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1825,22 +1847,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D30"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1870,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1856,7 +1878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1864,7 +1886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1872,37 +1894,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>49.333333333333336</v>
+        <v>52.583333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>118.66666666666666</v>
+        <v>115.41666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1916,7 +1938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1930,7 +1952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1944,7 +1966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1958,7 +1980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1972,7 +1994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1986,7 +2008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2000,7 +2022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2014,7 +2036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2028,7 +2050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2042,7 +2064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2056,7 +2078,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2067,7 +2089,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2078,7 +2100,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2089,7 +2111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2103,7 +2125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2117,7 +2139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2131,7 +2153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2145,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2159,7 +2181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2173,7 +2195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2187,17 +2209,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2">
+        <v>45274</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45274</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2">
         <v>45279</v>
       </c>
-      <c r="C30">
-        <v>120</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C32">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45279</v>
+      </c>
+      <c r="C33">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2224,22 +2288,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D40"/>
+    <sheetView view="pageLayout" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2311,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2255,7 +2319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2263,7 +2327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2271,10 +2335,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2286,7 +2350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2298,10 +2362,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2315,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2329,7 +2393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2343,7 +2407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2357,7 +2421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2371,7 +2435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2382,7 +2446,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2396,7 +2460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2407,7 +2471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2421,7 +2485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2432,7 +2496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2446,7 +2510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2457,7 +2521,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2468,7 +2532,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2482,7 +2546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2496,7 +2560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2510,7 +2574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2524,7 +2588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2538,7 +2602,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2552,7 +2616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2566,7 +2630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2580,7 +2644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2594,7 +2658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2608,7 +2672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2622,7 +2686,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -2636,23 +2700,26 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2">
         <v>45279</v>
       </c>
+      <c r="C34">
+        <v>120</v>
+      </c>
       <c r="D34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>45279</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2663,17 +2730,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>45280</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>45281</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2681,20 +2748,6 @@
         <v>45282</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45279</v>
-      </c>
-      <c r="C40">
-        <v>120</v>
-      </c>
-      <c r="D40" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2716,6 +2769,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2941,41 +3013,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2999,9 +3040,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
+++ b/docs/oplevering/08Projectdocumentatie/Tijdschrijfformulier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\docs\oplevering\08Projectdocumentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chmen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D6878-BE95-4F0E-8513-6A4443A6FBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58433C2B-07FA-46AD-8BB0-AD7D52539BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="480" windowWidth="14790" windowHeight="13950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marvin" sheetId="7" r:id="rId1"/>
@@ -27,24 +27,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Marvin!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="59">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -302,9 +289,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,22 +658,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D30"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -694,7 +681,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -702,7 +689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -710,7 +697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -718,37 +705,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -762,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -776,7 +763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -790,7 +777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -804,7 +791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -818,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -832,7 +819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -846,7 +833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -860,7 +847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -874,7 +861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -888,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -902,7 +889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -916,7 +903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -927,7 +914,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -941,7 +928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -955,7 +942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -969,7 +956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -983,7 +970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -997,7 +984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1011,7 +998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +1012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1039,7 +1026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1050,6 +1037,20 @@
         <v>120</v>
       </c>
       <c r="D30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1071,22 +1072,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView view="pageLayout" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1095,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1118,40 +1119,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>50.5</v>
+        <v>52.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>117.5</v>
+        <v>115.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1466,6 +1467,20 @@
         <v>120</v>
       </c>
       <c r="D32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C33">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1487,22 +1502,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1525,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1526,7 +1541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1534,37 +1549,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1592,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1606,7 +1621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1620,7 +1635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1648,7 +1663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1676,7 +1691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1704,7 +1719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1718,7 +1733,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1729,7 +1744,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1743,7 +1758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1757,7 +1772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1771,7 +1786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1782,7 +1797,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1796,7 +1811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1810,7 +1825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1822,6 +1837,20 @@
       </c>
       <c r="D27" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1847,22 +1876,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1899,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1878,7 +1907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1886,7 +1915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1894,37 +1923,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>52.583333333333336</v>
+        <v>54.583333333333336</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>115.41666666666666</v>
+        <v>113.41666666666666</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1938,7 +1967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1952,7 +1981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1966,7 +1995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1980,7 +2009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1994,7 +2023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2008,7 +2037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2022,7 +2051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2036,7 +2065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2050,7 +2079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2064,7 +2093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2078,7 +2107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2089,7 +2118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2100,7 +2129,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2111,7 +2140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2125,7 +2154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2139,7 +2168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2153,7 +2182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2167,7 +2196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2181,7 +2210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2195,7 +2224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2209,7 +2238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2223,7 +2252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2237,7 +2266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -2251,7 +2280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2262,6 +2291,20 @@
         <v>120</v>
       </c>
       <c r="D33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C34">
+        <v>120</v>
+      </c>
+      <c r="D34" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2288,22 +2331,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2354,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2319,7 +2362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2327,7 +2370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2335,10 +2378,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2350,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2362,10 +2405,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2379,7 +2422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2407,7 +2450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2421,7 +2464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2435,7 +2478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2446,7 +2489,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2460,7 +2503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2471,7 +2514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2485,7 +2528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2496,7 +2539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2510,7 +2553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2521,7 +2564,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2532,7 +2575,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2546,7 +2589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2560,7 +2603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2574,7 +2617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2588,7 +2631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2602,7 +2645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2616,7 +2659,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2630,7 +2673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2644,7 +2687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2658,7 +2701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2672,7 +2715,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2686,7 +2729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -2700,7 +2743,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2714,12 +2757,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>45279</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2730,17 +2773,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>45280</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>45281</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2750,6 +2793,9 @@
       <c r="D39" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2769,25 +2815,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e39e5be6c3b6c984bf8187e86b359ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ced390a3fc2668719c5d57d8ce08db4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3013,10 +3040,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3040,21 +3098,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>